--- a/Base/Teams/Jets/Distributions.xlsx
+++ b/Base/Teams/Jets/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.77728806804458, 1.175664750532217, 0.9705753586118379, 3.0829335089509655)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8536193324579111, 1.1790997670877146, 4.520680429700432, 5.797225239097308)</t>
-  </si>
-  <si>
-    <t>NIG(0.9144596379130449, 0.7148251891043755, 0.7786991661777027, 3.2330568404417797)</t>
-  </si>
-  <si>
-    <t>NIG(1.7211474428048277, 1.4039681182842894, 2.5545176250191344, 6.6154658873506635)</t>
+    <t>JSU(-0.8063246238521696, 1.1157283852016282, 0.9274878271935929, 2.8006964598969546)</t>
+  </si>
+  <si>
+    <t>JSU(-0.868993742167784, 1.2036190664269486, 4.464934356795796, 5.903238932687726)</t>
+  </si>
+  <si>
+    <t>NIG(0.9289038427542619, 0.7364796381811188, 0.754590683413744, 3.1094613782342373)</t>
+  </si>
+  <si>
+    <t>NIG(1.911271607600541, 1.5553807283435634, 2.2304123877282884, 6.904349453559232)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jets/Distributions.xlsx
+++ b/Base/Teams/Jets/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8063246238521696, 1.1157283852016282, 0.9274878271935929, 2.8006964598969546)</t>
-  </si>
-  <si>
-    <t>JSU(-0.868993742167784, 1.2036190664269486, 4.464934356795796, 5.903238932687726)</t>
-  </si>
-  <si>
-    <t>NIG(0.9289038427542619, 0.7364796381811188, 0.754590683413744, 3.1094613782342373)</t>
-  </si>
-  <si>
-    <t>NIG(1.911271607600541, 1.5553807283435634, 2.2304123877282884, 6.904349453559232)</t>
+    <t>JSU(-0.8171243547524514, 1.0904291384304117, 0.9321738139348509, 2.66060724226815)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9163983036770068, 1.253619990026913, 4.2036286534555884, 6.184489716725249)</t>
+  </si>
+  <si>
+    <t>NIG(1.014749777416181, 0.8168464095274359, 0.5502315334891282, 3.119678845059713)</t>
+  </si>
+  <si>
+    <t>NIG(1.9709875769239658, 1.605681370657908, 2.2036006119986884, 6.893476661133576)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jets/Distributions.xlsx
+++ b/Base/Teams/Jets/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8171243547524514, 1.0904291384304117, 0.9321738139348509, 2.66060724226815)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9163983036770068, 1.253619990026913, 4.2036286534555884, 6.184489716725249)</t>
-  </si>
-  <si>
-    <t>NIG(1.014749777416181, 0.8168464095274359, 0.5502315334891282, 3.119678845059713)</t>
-  </si>
-  <si>
-    <t>NIG(1.9709875769239658, 1.605681370657908, 2.2036006119986884, 6.893476661133576)</t>
+    <t>NIG(0.6811336970610611, 0.49671509742966835, 1.603801091685565, 2.7862281232746233)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0159624794830258, 1.306055257320395, 3.589490972523863, 6.338759556697734)</t>
+  </si>
+  <si>
+    <t>NIG(1.059480378540382, 0.8583194330301902, 0.5945054444569084, 3.059151433916581)</t>
+  </si>
+  <si>
+    <t>NIG(2.182921835882081, 1.776449772738065, 1.9739186929460228, 7.013686835579742)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jets/Distributions.xlsx
+++ b/Base/Teams/Jets/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.6811336970610611, 0.49671509742966835, 1.603801091685565, 2.7862281232746233)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0159624794830258, 1.306055257320395, 3.589490972523863, 6.338759556697734)</t>
-  </si>
-  <si>
-    <t>NIG(1.059480378540382, 0.8583194330301902, 0.5945054444569084, 3.059151433916581)</t>
-  </si>
-  <si>
-    <t>NIG(2.182921835882081, 1.776449772738065, 1.9739186929460228, 7.013686835579742)</t>
+    <t>NCT(2.3073112269268004, 1.4662627121157903, -0.7533565482959987, 2.366143232213453)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0529497042392317, 1.343859859563398, 3.4928454841736345, 6.545793970744947)</t>
+  </si>
+  <si>
+    <t>NIG(0.9916226789776033, 0.7765575776214685, 0.7551801201722991, 3.161456260717257)</t>
+  </si>
+  <si>
+    <t>EXN(3.094891655708858, 2.1031943695210895, 3.146090747745311)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Jets/Distributions.xlsx
+++ b/Base/Teams/Jets/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(2.3073112269268004, 1.4662627121157903, -0.7533565482959987, 2.366143232213453)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0529497042392317, 1.343859859563398, 3.4928454841736345, 6.545793970744947)</t>
-  </si>
-  <si>
-    <t>NIG(0.9916226789776033, 0.7765575776214685, 0.7551801201722991, 3.161456260717257)</t>
-  </si>
-  <si>
-    <t>EXN(3.094891655708858, 2.1031943695210895, 3.146090747745311)</t>
+    <t>NCT(2.3668248686718916, 1.5291322766718074, -0.9931304002363741, 2.3654466022045453)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0568984919693878, 1.3418273652357704, 3.467906409217938, 6.473877891100161)</t>
+  </si>
+  <si>
+    <t>NIG(0.9878716631290815, 0.7865431130628169, 0.686989032978522, 3.120549948133668)</t>
+  </si>
+  <si>
+    <t>NIG(2.448078256412928, 2.0129116242838063, 1.5787017903524658, 7.0299846736389995)</t>
   </si>
 </sst>
 </file>
